--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>344.3457178176026</v>
+        <v>0.8268259657126666</v>
       </c>
       <c r="R2">
-        <v>3099.111460358424</v>
+        <v>7.441433691414001</v>
       </c>
       <c r="S2">
-        <v>0.02236485918196687</v>
+        <v>0.0001592253407520804</v>
       </c>
       <c r="T2">
-        <v>0.02236485918196687</v>
+        <v>0.0001592253407520804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
-        <v>2538.639059833588</v>
+        <v>46.26664859026055</v>
       </c>
       <c r="R3">
-        <v>22847.75153850229</v>
+        <v>416.399837312345</v>
       </c>
       <c r="S3">
-        <v>0.1648816934528947</v>
+        <v>0.008909762383782065</v>
       </c>
       <c r="T3">
-        <v>0.1648816934528948</v>
+        <v>0.008909762383782067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>6233.975077077942</v>
+        <v>113.6783013069767</v>
       </c>
       <c r="R4">
-        <v>56105.77569370148</v>
+        <v>1023.10471176279</v>
       </c>
       <c r="S4">
-        <v>0.4048895267998948</v>
+        <v>0.02189150681318974</v>
       </c>
       <c r="T4">
-        <v>0.4048895267998948</v>
+        <v>0.02189150681318974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>121.3364396306969</v>
+        <v>15.98613895620133</v>
       </c>
       <c r="R5">
-        <v>1092.027956676272</v>
+        <v>143.875250605812</v>
       </c>
       <c r="S5">
-        <v>0.007880662501571087</v>
+        <v>0.003078517763308638</v>
       </c>
       <c r="T5">
-        <v>0.007880662501571087</v>
+        <v>0.003078517763308639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
-        <v>894.5353727058346</v>
+        <v>894.5353727058344</v>
       </c>
       <c r="R6">
-        <v>8050.818354352511</v>
+        <v>8050.818354352509</v>
       </c>
       <c r="S6">
-        <v>0.05809904583872696</v>
+        <v>0.172264424970143</v>
       </c>
       <c r="T6">
-        <v>0.05809904583872697</v>
+        <v>0.172264424970143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>2196.653832064787</v>
+        <v>2197.895562498313</v>
       </c>
       <c r="R7">
-        <v>19769.88448858309</v>
+        <v>19781.06006248482</v>
       </c>
       <c r="S7">
-        <v>0.142670145390568</v>
+        <v>0.4232579580088991</v>
       </c>
       <c r="T7">
-        <v>0.142670145390568</v>
+        <v>0.4232579580088991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N8">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q8">
-        <v>115.8492333534729</v>
+        <v>9.892873536358001</v>
       </c>
       <c r="R8">
-        <v>1042.643100181256</v>
+        <v>89.03586182722201</v>
       </c>
       <c r="S8">
-        <v>0.007524274751288321</v>
+        <v>0.001905112109639822</v>
       </c>
       <c r="T8">
-        <v>0.007524274751288321</v>
+        <v>0.001905112109639822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q9">
-        <v>854.0817371182894</v>
+        <v>553.5749026217984</v>
       </c>
       <c r="R9">
-        <v>7686.735634064605</v>
+        <v>4982.174123596185</v>
       </c>
       <c r="S9">
-        <v>0.05547162863415675</v>
+        <v>0.1066042385664343</v>
       </c>
       <c r="T9">
-        <v>0.05547162863415676</v>
+        <v>0.1066042385664343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N10">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q10">
-        <v>2097.31440251765</v>
+        <v>1360.14724415263</v>
       </c>
       <c r="R10">
-        <v>18875.82962265885</v>
+        <v>12241.32519737367</v>
       </c>
       <c r="S10">
-        <v>0.1362181634489326</v>
+        <v>0.2619292540438511</v>
       </c>
       <c r="T10">
-        <v>0.1362181634489326</v>
+        <v>0.2619292540438511</v>
       </c>
     </row>
   </sheetData>
